--- a/SchedulingData/static5/pso/scheduling1_4.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_4.xlsx
@@ -462,121 +462,121 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>45.72</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.22</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>27.228</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>59.36</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>26.724</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>70.5</v>
+        <v>62.7</v>
       </c>
       <c r="E5" t="n">
-        <v>27.08</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>106.88</v>
+        <v>110.14</v>
       </c>
       <c r="E6" t="n">
-        <v>22.632</v>
+        <v>23.796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>127.32</v>
+        <v>54.64</v>
       </c>
       <c r="E7" t="n">
-        <v>24.488</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.36</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>122.44</v>
+        <v>58.28</v>
       </c>
       <c r="E8" t="n">
-        <v>23.556</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.72</v>
       </c>
       <c r="D9" t="n">
-        <v>38.74</v>
+        <v>110.42</v>
       </c>
       <c r="E9" t="n">
-        <v>27.316</v>
+        <v>22.748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59.22</v>
+        <v>58.28</v>
       </c>
       <c r="D10" t="n">
-        <v>103.52</v>
+        <v>122.86</v>
       </c>
       <c r="E10" t="n">
-        <v>23.928</v>
+        <v>22.984</v>
       </c>
     </row>
     <row r="11">
@@ -637,112 +637,112 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122.44</v>
+        <v>54.64</v>
       </c>
       <c r="D11" t="n">
-        <v>189.6</v>
+        <v>119</v>
       </c>
       <c r="E11" t="n">
-        <v>20.96</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>103.52</v>
+        <v>122.86</v>
       </c>
       <c r="D12" t="n">
-        <v>141.32</v>
+        <v>163.46</v>
       </c>
       <c r="E12" t="n">
-        <v>21.288</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>189.6</v>
+        <v>110.14</v>
       </c>
       <c r="D13" t="n">
-        <v>244.4</v>
+        <v>190.54</v>
       </c>
       <c r="E13" t="n">
-        <v>17.6</v>
+        <v>19.376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>244.4</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
-        <v>305.3</v>
+        <v>131.8</v>
       </c>
       <c r="E14" t="n">
-        <v>14.12</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.74</v>
+        <v>163.46</v>
       </c>
       <c r="D15" t="n">
-        <v>105.74</v>
+        <v>212.38</v>
       </c>
       <c r="E15" t="n">
-        <v>23.716</v>
+        <v>17.292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>127.32</v>
+        <v>62.7</v>
       </c>
       <c r="D16" t="n">
-        <v>184.08</v>
+        <v>138.52</v>
       </c>
       <c r="E16" t="n">
-        <v>20.432</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>141.32</v>
+        <v>131.8</v>
       </c>
       <c r="D17" t="n">
-        <v>220.72</v>
+        <v>187.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.948</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106.88</v>
+        <v>110.42</v>
       </c>
       <c r="D18" t="n">
-        <v>170.72</v>
+        <v>164.84</v>
       </c>
       <c r="E18" t="n">
-        <v>18.368</v>
+        <v>18.436</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>220.72</v>
+        <v>187.9</v>
       </c>
       <c r="D19" t="n">
-        <v>285.42</v>
+        <v>241.76</v>
       </c>
       <c r="E19" t="n">
-        <v>12.568</v>
+        <v>14.844</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>105.74</v>
+        <v>164.84</v>
       </c>
       <c r="D20" t="n">
-        <v>164.44</v>
+        <v>235.16</v>
       </c>
       <c r="E20" t="n">
-        <v>19.976</v>
+        <v>15.004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>184.08</v>
+        <v>119</v>
       </c>
       <c r="D21" t="n">
-        <v>239.86</v>
+        <v>164.1</v>
       </c>
       <c r="E21" t="n">
-        <v>17.464</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.52</v>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>188.4</v>
       </c>
       <c r="E22" t="n">
-        <v>24.9</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="23">
@@ -865,74 +865,74 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>170.72</v>
+        <v>188.4</v>
       </c>
       <c r="D23" t="n">
-        <v>249.64</v>
+        <v>240.8</v>
       </c>
       <c r="E23" t="n">
-        <v>14.056</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>164.44</v>
+        <v>241.76</v>
       </c>
       <c r="D24" t="n">
-        <v>254.74</v>
+        <v>299.48</v>
       </c>
       <c r="E24" t="n">
-        <v>15.556</v>
+        <v>11.672</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>285.42</v>
+        <v>212.38</v>
       </c>
       <c r="D25" t="n">
-        <v>319.22</v>
+        <v>278.08</v>
       </c>
       <c r="E25" t="n">
-        <v>10.328</v>
+        <v>13.812</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>305.3</v>
+        <v>299.48</v>
       </c>
       <c r="D26" t="n">
-        <v>377.72</v>
+        <v>392.8</v>
       </c>
       <c r="E26" t="n">
-        <v>10.948</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>254.74</v>
+        <v>235.16</v>
       </c>
       <c r="D27" t="n">
-        <v>319.22</v>
+        <v>287.12</v>
       </c>
       <c r="E27" t="n">
-        <v>11.708</v>
+        <v>12.408</v>
       </c>
     </row>
     <row r="28">
@@ -960,264 +960,264 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>249.64</v>
+        <v>240.8</v>
       </c>
       <c r="D28" t="n">
-        <v>297.04</v>
+        <v>280.8</v>
       </c>
       <c r="E28" t="n">
-        <v>10.936</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>319.22</v>
+        <v>164.1</v>
       </c>
       <c r="D29" t="n">
-        <v>413.64</v>
+        <v>227.8</v>
       </c>
       <c r="E29" t="n">
-        <v>7.836</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>68</v>
+        <v>227.8</v>
       </c>
       <c r="D30" t="n">
-        <v>118.88</v>
+        <v>322.9</v>
       </c>
       <c r="E30" t="n">
-        <v>21.952</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>297.04</v>
+        <v>322.9</v>
       </c>
       <c r="D31" t="n">
-        <v>349.54</v>
+        <v>360.12</v>
       </c>
       <c r="E31" t="n">
-        <v>7.816</v>
+        <v>9.747999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>118.88</v>
+        <v>190.54</v>
       </c>
       <c r="D32" t="n">
-        <v>164.38</v>
+        <v>242.7</v>
       </c>
       <c r="E32" t="n">
-        <v>18.532</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>413.64</v>
+        <v>242.7</v>
       </c>
       <c r="D33" t="n">
-        <v>478.34</v>
+        <v>299.9</v>
       </c>
       <c r="E33" t="n">
-        <v>4.456</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>239.86</v>
+        <v>280.8</v>
       </c>
       <c r="D34" t="n">
-        <v>292.02</v>
+        <v>351.28</v>
       </c>
       <c r="E34" t="n">
-        <v>12.888</v>
+        <v>9.132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>377.72</v>
+        <v>278.08</v>
       </c>
       <c r="D35" t="n">
-        <v>457.74</v>
+        <v>325.04</v>
       </c>
       <c r="E35" t="n">
-        <v>8.036</v>
+        <v>9.756</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>164.38</v>
+        <v>360.12</v>
       </c>
       <c r="D36" t="n">
-        <v>230.4</v>
+        <v>424.2</v>
       </c>
       <c r="E36" t="n">
-        <v>14.06</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>292.02</v>
+        <v>392.8</v>
       </c>
       <c r="D37" t="n">
-        <v>357.64</v>
+        <v>433.22</v>
       </c>
       <c r="E37" t="n">
-        <v>9.456</v>
+        <v>5.008</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>230.4</v>
+        <v>299.9</v>
       </c>
       <c r="D38" t="n">
-        <v>284.48</v>
+        <v>347.6</v>
       </c>
       <c r="E38" t="n">
-        <v>11.772</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>319.22</v>
+        <v>287.12</v>
       </c>
       <c r="D39" t="n">
-        <v>404.72</v>
+        <v>381.52</v>
       </c>
       <c r="E39" t="n">
-        <v>6.848</v>
+        <v>7.068</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>404.72</v>
+        <v>325.04</v>
       </c>
       <c r="D40" t="n">
-        <v>483.04</v>
+        <v>380.82</v>
       </c>
       <c r="E40" t="n">
-        <v>3.096</v>
+        <v>6.788</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>349.54</v>
+        <v>347.6</v>
       </c>
       <c r="D41" t="n">
-        <v>404.4</v>
+        <v>396.3</v>
       </c>
       <c r="E41" t="n">
-        <v>4.96</v>
+        <v>6.32</v>
       </c>
     </row>
   </sheetData>
